--- a/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_phevg.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_phevg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940ABF8-412D-7844-BFF4-C9A9EAAEEF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688DA86A-C2D8-0C4C-935D-D4BB47DD9FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,8 +744,8 @@
   <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <pane ySplit="5" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
